--- a/data/TopOnePercent/Hangzhou Normal University.xlsx
+++ b/data/TopOnePercent/Hangzhou Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1350.0</v>
+        <v>1307.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>20936.0</v>
+        <v>20116.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>15.51</v>
+        <v>15.39</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,16 +206,16 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>377.0</v>
+        <v>382.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>7677.0</v>
+        <v>7957.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>20.36</v>
+        <v>20.83</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
@@ -228,16 +228,16 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>444.0</v>
+        <v>435.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>4476.0</v>
+        <v>4420.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>10.08</v>
+        <v>10.16</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
@@ -253,10 +253,10 @@
         <v>463.0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>3832.0</v>
+        <v>3853.0</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>8.28</v>
+        <v>8.32</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>2.0</v>
@@ -272,13 +272,13 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>192.0</v>
+        <v>190.0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>2889.0</v>
+        <v>2939.0</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>15.05</v>
+        <v>15.47</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>6.0</v>
@@ -294,22 +294,22 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>6376.0</v>
+        <v>6320.0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>82330.0</v>
+        <v>82499.0</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>12.91</v>
+        <v>13.05</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>85.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
